--- a/results.xlsx
+++ b/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,30 @@
   </si>
   <si>
     <t>net45 -&gt; xamarin link 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017core load 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dotnetapp outputpath 어쩌구 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maccore 에서 dotnet, dotnet2 link 됨. 호환되지 않는다고 나오지만 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net462가 안깔려있다고 나옴. 그래서 테스트도 안됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -732,6 +756,38 @@
         <v>41</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
